--- a/BackTest/2019-10-30 BackTest BCH.xlsx
+++ b/BackTest/2019-10-30 BackTest BCH.xlsx
@@ -4371,13 +4371,17 @@
         <v>333375</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>331800</v>
+      </c>
+      <c r="K114" t="n">
+        <v>331800</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4406,14 +4410,22 @@
         <v>333225</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>331900</v>
+      </c>
+      <c r="K115" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4453,22 @@
         <v>333075</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K116" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4496,22 @@
         <v>332975</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>332900</v>
+      </c>
+      <c r="K117" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4539,22 @@
         <v>332885</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>332600</v>
+      </c>
+      <c r="K118" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +4582,22 @@
         <v>332785</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>332900</v>
+      </c>
+      <c r="K119" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4581,14 +4625,22 @@
         <v>332755</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>333400</v>
+      </c>
+      <c r="K120" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4668,22 @@
         <v>332670</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>333500</v>
+      </c>
+      <c r="K121" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4752,22 @@
         <v>332615</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>333200</v>
+      </c>
+      <c r="K123" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +4842,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5088,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5211,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5252,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5293,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5334,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5457,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5539,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,18 +5574,18 @@
         <v>332320</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>331400</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>331800</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5427,15 +5615,15 @@
         <v>332070</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>328400</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>331800</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,15 +5656,15 @@
         <v>331890</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>328700</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>331800</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,15 +5697,15 @@
         <v>331860</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
         <v>331800</v>
       </c>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,15 +5738,15 @@
         <v>331815</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>331300</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>331800</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5591,15 +5779,15 @@
         <v>331870</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>333400</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>331800</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,15 +5820,15 @@
         <v>332000</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>335000</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>331800</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,15 +5861,15 @@
         <v>332165</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>336000</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>331800</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,7 +5908,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>331800</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5759,7 +5949,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>331800</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,7 +5990,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>331800</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,7 +6031,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>331800</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,7 +6072,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>331800</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,7 +6113,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>331800</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,7 +6154,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>331800</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>331800</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,7 +6236,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>331800</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>331800</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,7 +6318,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>331800</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,7 +6359,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>331800</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,7 +6400,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>331800</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,7 +6441,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>331800</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,7 +6482,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>331800</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,7 +6523,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>331800</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,7 +6564,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>331800</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,7 +6605,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>331800</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,7 +6646,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>331800</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,7 +6687,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>331800</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,7 +6728,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>331800</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6539,7 +6769,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>331800</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,7 +6810,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>331800</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,7 +6851,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>331800</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>331800</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,7 +6933,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>331800</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,7 +6974,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>331800</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,7 +7015,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>331800</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,7 +7056,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>331800</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,7 +7097,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>331800</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>331800</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,7 +7179,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>331800</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,7 +7220,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>331800</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,7 +7261,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>331800</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,7 +7302,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>331800</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>331800</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,7 +7384,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>331800</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,7 +7425,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>331800</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,7 +7466,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>331800</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,7 +7507,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>331800</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,7 +7548,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>331800</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,7 +7589,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>331800</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,7 +7630,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>331800</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>331800</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,7 +7712,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>331800</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,7 +7753,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>331800</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,7 +7794,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>331800</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,7 +7835,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>331800</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,7 +7876,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>331800</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,7 +7917,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>331800</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,7 +7958,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>331800</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,7 +7999,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>331800</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,7 +8040,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>331800</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,7 +8081,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>331800</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,7 +8122,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>331800</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,7 +8163,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>331800</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,7 +8204,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>331800</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,7 +8245,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>331800</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,7 +8286,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>331800</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,7 +8327,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>331800</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,7 +8368,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>331800</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,7 +8409,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>331800</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8138,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>331800</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8177,7 +8491,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>331800</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,7 +8532,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>331800</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,7 +8573,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>331800</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,7 +8614,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>331800</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,7 +8655,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>331800</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,13 +8690,17 @@
         <v>333850</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>332800</v>
+      </c>
+      <c r="K219" t="n">
+        <v>331800</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,13 +8733,17 @@
         <v>333735</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>332900</v>
+      </c>
+      <c r="K220" t="n">
+        <v>331800</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,7 +8782,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>331800</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,7 +8823,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>331800</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8528,7 +8864,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>331800</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,7 +8905,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>331800</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,13 +8940,17 @@
         <v>333225</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>332700</v>
+      </c>
+      <c r="K225" t="n">
+        <v>331800</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8639,13 +8983,17 @@
         <v>333140</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K226" t="n">
+        <v>331800</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,13 +9026,17 @@
         <v>333070</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K227" t="n">
+        <v>331800</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,13 +9069,17 @@
         <v>332970</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>332500</v>
+      </c>
+      <c r="K228" t="n">
+        <v>331800</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,13 +9112,17 @@
         <v>332875</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K229" t="n">
+        <v>331800</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,13 +9155,17 @@
         <v>332800</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>332000</v>
+      </c>
+      <c r="K230" t="n">
+        <v>331800</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,13 +9198,17 @@
         <v>332735</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>331900</v>
+      </c>
+      <c r="K231" t="n">
+        <v>331800</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,13 +9241,17 @@
         <v>332665</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K232" t="n">
+        <v>331800</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,13 +9284,17 @@
         <v>332595</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>332100</v>
+      </c>
+      <c r="K233" t="n">
+        <v>331800</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,7 +9333,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>331800</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,7 +9374,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>331800</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,7 +9415,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>331800</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,15 +9450,15 @@
         <v>332235</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>331400</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>331800</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,15 +9491,15 @@
         <v>332155</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>331400</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>331800</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,15 +9532,15 @@
         <v>332065</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>331200</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>331800</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,15 +9573,15 @@
         <v>331985</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>331200</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>331800</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9232,15 +9614,15 @@
         <v>331890</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>330800</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>331800</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,15 +9655,15 @@
         <v>331795</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>330800</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>331800</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,15 +9696,15 @@
         <v>331735</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>331000</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>331800</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9355,15 +9737,15 @@
         <v>331675</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>331100</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>331800</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,15 +9778,15 @@
         <v>331645</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>331500</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>331800</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9437,15 +9819,15 @@
         <v>331605</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>331500</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>331800</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,15 +9860,15 @@
         <v>331620</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>332600</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>331800</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9519,15 +9901,15 @@
         <v>331645</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>332600</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>331800</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,15 +9942,15 @@
         <v>331690</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>333000</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>331800</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9601,15 +9983,15 @@
         <v>331760</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>333400</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>331800</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,15 +10024,15 @@
         <v>331835</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>333700</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>331800</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,15 +10065,15 @@
         <v>331920</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>333800</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>331800</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,7 +10112,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>331800</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,7 +10153,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>331800</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,7 +10194,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>331800</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,7 +10235,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>331800</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,7 +10276,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>331800</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,7 +10317,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>331800</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,7 +10358,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>331800</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,7 +10399,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>331800</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,7 +10440,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>331800</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10081,7 +10481,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>331800</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10120,7 +10522,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>331800</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10159,7 +10563,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>331800</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10198,7 +10604,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>331800</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10237,7 +10645,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>331800</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10276,7 +10686,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>331800</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10315,7 +10727,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>331800</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10354,7 +10768,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>331800</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,7 +10809,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>331800</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10432,7 +10850,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>331800</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10471,7 +10891,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>331800</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10510,7 +10932,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>331800</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,7 +10973,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>331800</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10588,7 +11014,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>331800</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10627,7 +11055,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>331800</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10666,7 +11096,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>331800</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10705,7 +11137,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>331800</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10744,7 +11178,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>331800</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10783,7 +11219,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>331800</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10822,7 +11260,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>331800</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10861,7 +11301,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>331800</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10900,7 +11342,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>331800</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,7 +11383,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>331800</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10978,7 +11424,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>331800</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11017,7 +11465,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>331800</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11056,7 +11506,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>331800</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11095,7 +11547,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>331800</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11134,7 +11588,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>331800</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11173,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>331800</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11212,7 +11670,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>331800</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11251,7 +11711,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>331800</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11290,7 +11752,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>331800</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11329,7 +11793,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>331800</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11368,7 +11834,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>331800</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11407,7 +11875,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>331800</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,7 +11916,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>331800</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11485,7 +11957,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>331800</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,7 +11998,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>331800</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11563,7 +12039,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>331800</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11602,7 +12080,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>331800</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,7 +12121,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>331800</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,7 +12162,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>331800</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,7 +12203,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>331800</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,7 +12244,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>331800</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11797,7 +12285,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>331800</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11836,7 +12326,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>331800</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11875,7 +12367,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>331800</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,7 +12408,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>331800</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11953,7 +12449,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>331800</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11992,7 +12490,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>331800</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12031,7 +12531,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>331800</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12070,7 +12572,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>331800</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12109,7 +12613,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>331800</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12148,7 +12654,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>331800</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,7 +12695,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>331800</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12226,7 +12736,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>331800</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12265,7 +12777,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>331800</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12304,7 +12818,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>331800</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,7 +12859,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>331800</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12382,7 +12900,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>331800</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12421,7 +12941,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>331800</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12460,7 +12982,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>331800</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,7 +13023,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>331800</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,7 +13064,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>331800</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,7 +13105,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>331800</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,7 +13146,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>331800</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>331800</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,7 +13228,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>331800</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,7 +13269,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>331800</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12772,7 +13310,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>331800</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12811,7 +13351,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>331800</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12850,7 +13392,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>331800</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,7 +13433,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>331800</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12928,7 +13474,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>331800</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,7 +13515,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>331800</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,7 +13556,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>331800</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,7 +13597,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>331800</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,7 +13638,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>331800</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,7 +13679,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>331800</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,7 +13720,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>331800</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,7 +13761,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>331800</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,7 +13802,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>331800</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,7 +13843,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>331800</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,7 +13884,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>331800</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,7 +13925,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>331800</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,7 +13966,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>331800</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,7 +14007,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>331800</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13474,7 +14048,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>331800</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,7 +14089,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>331800</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13552,7 +14130,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>331800</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,7 +14171,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>331800</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13630,7 +14212,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>331800</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13669,7 +14253,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>331800</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13708,7 +14294,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>331800</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13747,7 +14335,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>331800</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,7 +14376,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>331800</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13825,7 +14417,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>331800</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13864,7 +14458,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>331800</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13903,7 +14499,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>331800</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,7 +14540,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>331800</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,7 +14581,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>331800</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,7 +14622,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>331800</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,7 +14663,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>331800</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,7 +14704,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>331800</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,7 +14745,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>331800</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,7 +14786,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>331800</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,7 +14827,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>331800</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,7 +14868,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>331800</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>331800</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14332,7 +14950,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>331800</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14371,7 +14991,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>331800</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14410,7 +15032,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>331800</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14449,7 +15073,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>331800</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14488,7 +15114,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>331800</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14527,7 +15155,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>331800</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14566,7 +15196,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>331800</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,7 +15237,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>331800</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14644,7 +15278,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>331800</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14683,7 +15319,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>331800</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14722,7 +15360,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>331800</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,7 +15401,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>331800</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14800,7 +15442,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>331800</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14839,7 +15483,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>331800</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,7 +15524,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>331800</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14917,7 +15565,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>331800</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14956,7 +15606,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>331800</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14995,7 +15647,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>331800</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15034,7 +15688,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>331800</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15073,7 +15729,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>331800</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15112,7 +15770,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>331800</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15151,7 +15811,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>331800</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15190,7 +15852,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>331800</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15229,7 +15893,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>331800</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15268,7 +15934,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>331800</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,15 +15969,15 @@
         <v>332785</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="n">
         <v>331800</v>
       </c>
-      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15342,15 +16010,15 @@
         <v>332685</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="n">
         <v>331800</v>
       </c>
-      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,15 +16051,15 @@
         <v>332630</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>332100</v>
-      </c>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>331800</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15424,15 +16092,15 @@
         <v>332590</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>332300</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>331800</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,15 +16133,15 @@
         <v>332550</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>332300</v>
-      </c>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>331800</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15506,15 +16174,15 @@
         <v>332490</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>332500</v>
-      </c>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>331800</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15547,15 +16215,15 @@
         <v>332445</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>332600</v>
-      </c>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>331800</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15588,15 +16256,15 @@
         <v>332415</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>332600</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>331800</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15629,15 +16297,15 @@
         <v>332405</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>333000</v>
-      </c>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>331800</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15670,15 +16338,15 @@
         <v>332380</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>333100</v>
-      </c>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>331800</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15717,7 +16385,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>331800</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15756,7 +16426,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>331800</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,7 +16467,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>331800</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15834,7 +16508,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>331800</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15873,7 +16549,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>331800</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15912,7 +16590,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>331800</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,7 +16631,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>331800</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15990,7 +16672,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>331800</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16029,7 +16713,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>331800</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,7 +16754,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>331800</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,7 +16795,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>331800</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,7 +16836,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>331800</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16185,7 +16877,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>331800</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16224,7 +16918,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>331800</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16263,7 +16959,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>331800</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16302,7 +17000,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>331800</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16341,7 +17041,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>331800</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,15 +17076,15 @@
         <v>332890</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>331300</v>
-      </c>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>331800</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16415,15 +17117,15 @@
         <v>332820</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>331600</v>
-      </c>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>331800</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16462,7 +17164,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>331800</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16495,15 +17199,15 @@
         <v>332705</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="n">
         <v>331800</v>
       </c>
-      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16536,15 +17240,15 @@
         <v>332625</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="n">
         <v>331800</v>
       </c>
-      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16577,15 +17281,15 @@
         <v>332540</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>331900</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>331800</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16618,15 +17322,15 @@
         <v>332440</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>332000</v>
-      </c>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>331800</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16659,15 +17363,15 @@
         <v>332315</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>331300</v>
-      </c>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>331800</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16700,15 +17404,15 @@
         <v>332205</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>331500</v>
-      </c>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>331800</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16741,15 +17445,15 @@
         <v>332095</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>331100</v>
-      </c>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>331800</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16782,15 +17486,15 @@
         <v>331975</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>330600</v>
-      </c>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>331800</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,15 +17527,15 @@
         <v>331860</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>330600</v>
-      </c>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>331800</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,15 +17568,15 @@
         <v>331740</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>330300</v>
-      </c>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>331800</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,15 +17609,15 @@
         <v>331610</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>330200</v>
-      </c>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>331800</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16946,15 +17650,15 @@
         <v>331480</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>330000</v>
-      </c>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>331800</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16987,15 +17691,15 @@
         <v>331345</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>329900</v>
-      </c>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>331800</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17028,15 +17732,15 @@
         <v>331190</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>329600</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>331800</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17069,15 +17773,15 @@
         <v>331065</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>329500</v>
-      </c>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>331800</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,15 +17814,15 @@
         <v>330960</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>330100</v>
-      </c>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>331800</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17151,15 +17855,15 @@
         <v>330920</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>331200</v>
-      </c>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>331800</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17192,15 +17896,15 @@
         <v>330995</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>332800</v>
-      </c>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>331800</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17233,15 +17937,15 @@
         <v>331065</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>333000</v>
-      </c>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>331800</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,15 +17978,15 @@
         <v>331070</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>332200</v>
-      </c>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>331800</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17315,15 +18019,15 @@
         <v>331080</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>332000</v>
-      </c>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>331800</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17356,15 +18060,15 @@
         <v>331110</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>332400</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>331800</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17397,15 +18101,15 @@
         <v>331170</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>333100</v>
-      </c>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>331800</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17438,15 +18142,15 @@
         <v>331245</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>333500</v>
-      </c>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>331800</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17479,15 +18183,15 @@
         <v>331430</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>335000</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>331800</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17520,15 +18224,15 @@
         <v>331725</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>337400</v>
-      </c>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>331800</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,7 +18271,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>331800</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17606,7 +18312,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>331800</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,17 +18350,19 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>331800</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1</v>
+        <v>1.051962025316456</v>
       </c>
     </row>
     <row r="455">
@@ -17681,15 +18391,11 @@
         <v>0</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17720,15 +18426,11 @@
         <v>0</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17759,15 +18461,11 @@
         <v>0</v>
       </c>
       <c r="I457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17802,11 +18500,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17841,11 +18535,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17876,16 +18566,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -17983,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
@@ -18018,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
@@ -18053,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
@@ -18088,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
@@ -18123,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
@@ -18158,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
@@ -18438,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
@@ -34258,7 +34946,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
@@ -34293,7 +34981,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
@@ -37790,14 +38478,20 @@
         <v>332435</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1029" t="n">
         <v>0</v>
       </c>
-      <c r="J1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>331000</v>
+      </c>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -37825,14 +38519,20 @@
         <v>332345</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1030" t="n">
         <v>0</v>
       </c>
-      <c r="J1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>332300</v>
+      </c>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -37867,7 +38567,11 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -37902,7 +38606,11 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -37937,7 +38645,11 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -37965,14 +38677,20 @@
         <v>332110</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1034" t="n">
         <v>0</v>
       </c>
-      <c r="J1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>333100</v>
+      </c>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -38007,7 +38725,11 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -38042,7 +38764,11 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -38077,7 +38803,11 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -38112,7 +38842,11 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -38147,7 +38881,11 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -38182,7 +38920,11 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -38217,7 +38959,11 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -38252,7 +38998,11 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -38287,7 +39037,11 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -38322,7 +39076,11 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -38357,7 +39115,11 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -38392,7 +39154,11 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -38427,7 +39193,11 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -38462,7 +39232,11 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -38497,7 +39271,11 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -38532,7 +39310,11 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -38567,7 +39349,11 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -38602,7 +39388,11 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -38637,7 +39427,11 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -38672,7 +39466,11 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -38707,7 +39505,11 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -38742,7 +39544,11 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -38777,7 +39583,11 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -38812,7 +39622,11 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -38847,7 +39661,11 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -38882,7 +39700,11 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -38917,7 +39739,11 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -38952,7 +39778,11 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -38987,7 +39817,11 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -39022,7 +39856,11 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -39057,7 +39895,11 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -39092,7 +39934,11 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -39127,7 +39973,11 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -39162,7 +40012,11 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -39197,7 +40051,11 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -39232,7 +40090,11 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -39267,7 +40129,11 @@
       </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -39302,7 +40168,11 @@
       </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -39333,11 +40203,15 @@
         <v>0</v>
       </c>
       <c r="I1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -39368,11 +40242,15 @@
         <v>0</v>
       </c>
       <c r="I1074" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -39403,11 +40281,15 @@
         <v>0</v>
       </c>
       <c r="I1075" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -39438,11 +40320,15 @@
         <v>0</v>
       </c>
       <c r="I1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -39473,11 +40359,15 @@
         <v>0</v>
       </c>
       <c r="I1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -39512,7 +40402,11 @@
       </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -39547,7 +40441,11 @@
       </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -39582,7 +40480,11 @@
       </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -39613,11 +40515,15 @@
         <v>0</v>
       </c>
       <c r="I1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -39648,11 +40554,15 @@
         <v>0</v>
       </c>
       <c r="I1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -39683,11 +40593,15 @@
         <v>0</v>
       </c>
       <c r="I1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -39718,11 +40632,15 @@
         <v>0</v>
       </c>
       <c r="I1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -39757,7 +40675,11 @@
       </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -39792,7 +40714,11 @@
       </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -39827,7 +40753,11 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -39862,7 +40792,11 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -39897,7 +40831,11 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -39932,7 +40870,11 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -39967,7 +40909,11 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -40002,7 +40948,11 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -40037,7 +40987,11 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -40072,7 +41026,11 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -40107,7 +41065,11 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -40142,7 +41104,11 @@
       </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -40177,7 +41143,11 @@
       </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -40212,7 +41182,11 @@
       </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -40247,7 +41221,11 @@
       </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -40282,7 +41260,11 @@
       </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -40317,7 +41299,11 @@
       </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -40352,7 +41338,11 @@
       </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -40387,7 +41377,11 @@
       </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -40422,7 +41416,11 @@
       </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -40457,7 +41455,11 @@
       </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -40492,7 +41494,11 @@
       </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -40527,7 +41533,11 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -40562,7 +41572,11 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -40597,7 +41611,11 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -40632,7 +41650,11 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -40667,7 +41689,11 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -40702,7 +41728,11 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -40737,7 +41767,11 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -40772,7 +41806,11 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -40807,7 +41845,11 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -40842,7 +41884,11 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -40877,7 +41923,11 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -40912,7 +41962,11 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -40947,7 +42001,11 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -40982,7 +42040,11 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -41017,7 +42079,11 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -41052,7 +42118,11 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -41087,7 +42157,11 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
@@ -41122,7 +42196,11 @@
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>
-      <c r="L1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1124" t="n">
         <v>1</v>
       </c>
@@ -41157,7 +42235,11 @@
       </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr"/>
-      <c r="L1125" t="inlineStr"/>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1125" t="n">
         <v>1</v>
       </c>
@@ -41192,7 +42274,11 @@
       </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr"/>
-      <c r="L1126" t="inlineStr"/>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1126" t="n">
         <v>1</v>
       </c>
@@ -41227,7 +42313,11 @@
       </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr"/>
-      <c r="L1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1127" t="n">
         <v>1</v>
       </c>
@@ -41262,7 +42352,11 @@
       </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr"/>
-      <c r="L1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1128" t="n">
         <v>1</v>
       </c>
@@ -41297,7 +42391,11 @@
       </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr"/>
-      <c r="L1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1129" t="n">
         <v>1</v>
       </c>
@@ -41332,7 +42430,11 @@
       </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr"/>
-      <c r="L1130" t="inlineStr"/>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1130" t="n">
         <v>1</v>
       </c>
@@ -41367,7 +42469,11 @@
       </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr"/>
-      <c r="L1131" t="inlineStr"/>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1131" t="n">
         <v>1</v>
       </c>
@@ -41402,7 +42508,11 @@
       </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr"/>
-      <c r="L1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1132" t="n">
         <v>1</v>
       </c>
@@ -41437,7 +42547,11 @@
       </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr"/>
-      <c r="L1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1133" t="n">
         <v>1</v>
       </c>
@@ -41472,7 +42586,11 @@
       </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -41507,7 +42625,11 @@
       </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -41542,7 +42664,11 @@
       </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -41577,7 +42703,11 @@
       </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -41612,7 +42742,11 @@
       </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -41647,7 +42781,11 @@
       </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -41682,7 +42820,11 @@
       </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -41717,7 +42859,11 @@
       </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -41752,7 +42898,11 @@
       </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -41787,7 +42937,11 @@
       </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -41822,7 +42976,11 @@
       </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -41857,7 +43015,11 @@
       </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -41892,7 +43054,11 @@
       </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -41927,7 +43093,11 @@
       </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -41962,7 +43132,11 @@
       </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -41997,7 +43171,11 @@
       </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -42032,7 +43210,11 @@
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -42067,7 +43249,11 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -42102,7 +43288,11 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -42137,7 +43327,11 @@
       </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
-      <c r="L1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1153" t="n">
         <v>1</v>
       </c>
@@ -42172,7 +43366,11 @@
       </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
-      <c r="L1154" t="inlineStr"/>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1154" t="n">
         <v>1</v>
       </c>
@@ -42207,7 +43405,11 @@
       </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
-      <c r="L1155" t="inlineStr"/>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1155" t="n">
         <v>1</v>
       </c>
@@ -42242,7 +43444,11 @@
       </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
-      <c r="L1156" t="inlineStr"/>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1156" t="n">
         <v>1</v>
       </c>
@@ -42277,7 +43483,11 @@
       </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
-      <c r="L1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1157" t="n">
         <v>1</v>
       </c>
@@ -42312,7 +43522,11 @@
       </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
-      <c r="L1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1158" t="n">
         <v>1</v>
       </c>
@@ -42347,7 +43561,11 @@
       </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -42382,7 +43600,11 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr"/>
+      <c r="L1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -42417,7 +43639,11 @@
       </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr"/>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -42452,7 +43678,11 @@
       </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -42487,7 +43717,11 @@
       </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -42522,7 +43756,11 @@
       </c>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -42557,7 +43795,11 @@
       </c>
       <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr"/>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -42592,7 +43834,11 @@
       </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -42627,7 +43873,11 @@
       </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -42662,7 +43912,11 @@
       </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -42697,7 +43951,11 @@
       </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -42732,7 +43990,11 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr"/>
+      <c r="L1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -42767,7 +44029,11 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -42795,14 +44061,20 @@
         <v>334920</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1172" t="n">
         <v>0</v>
       </c>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>335500</v>
+      </c>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr"/>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -42830,14 +44102,20 @@
         <v>334805</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1173" t="n">
         <v>0</v>
       </c>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>335100</v>
+      </c>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -42865,14 +44143,20 @@
         <v>334720</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1174" t="n">
         <v>0</v>
       </c>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>334600</v>
+      </c>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -42900,14 +44184,20 @@
         <v>334650</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1175" t="n">
         <v>0</v>
       </c>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>334300</v>
+      </c>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -42935,14 +44225,20 @@
         <v>334585</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1176" t="n">
         <v>0</v>
       </c>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>334900</v>
+      </c>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -42977,7 +44273,11 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr"/>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -43012,7 +44312,11 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -43047,7 +44351,11 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -43082,7 +44390,11 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr"/>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -43117,7 +44429,11 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -43152,7 +44468,11 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -43187,7 +44507,11 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -43222,7 +44546,11 @@
       </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr"/>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -43257,7 +44585,11 @@
       </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -43292,7 +44624,11 @@
       </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -43327,7 +44663,11 @@
       </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -43362,7 +44702,11 @@
       </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1188" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest BCH.xlsx
+++ b/BackTest/2019-10-30 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40.07331137999992</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>146.7510886200001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>330800</v>
@@ -521,7 +521,7 @@
         <v>109.6449886200001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>332000</v>
@@ -562,7 +562,7 @@
         <v>109.6449886200001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>331700</v>
@@ -603,11 +603,19 @@
         <v>24.72300068000008</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>331700</v>
+      </c>
+      <c r="J6" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,15 +644,17 @@
         <v>24.72300068000008</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>331100</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>330800</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -675,12 +685,14 @@
         <v>66.17030068000008</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>331100</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>330800</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -714,10 +726,14 @@
         <v>99.21400068000008</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>331400</v>
+      </c>
+      <c r="J9" t="n">
+        <v>330800</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -751,10 +767,14 @@
         <v>203.6557006800001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>332200</v>
+      </c>
+      <c r="J10" t="n">
+        <v>330800</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -788,12 +808,12 @@
         <v>288.6930597900001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>332800</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>330800</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -830,7 +850,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>330800</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -867,7 +889,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>330800</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -904,7 +928,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>330800</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -941,7 +967,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>330800</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -978,7 +1006,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>330800</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1015,7 +1045,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>330800</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1052,7 +1084,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>330800</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1089,7 +1123,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>330800</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1126,7 +1162,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>330800</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1163,7 +1201,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>330800</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,7 +1240,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>330800</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1237,7 +1279,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>330800</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1274,7 +1318,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>330800</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1311,7 +1357,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>330800</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1345,10 +1393,14 @@
         <v>-11.93243719999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>330000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>330800</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1385,7 +1437,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>330800</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1422,7 +1476,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>330800</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,7 +1515,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>330800</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1496,7 +1554,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>330800</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1533,7 +1593,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>330800</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,7 +1632,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>330800</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1607,7 +1671,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>330800</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1644,7 +1710,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>330800</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1681,7 +1749,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>330800</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,7 +1788,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>330800</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1755,7 +1827,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>330800</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1792,7 +1866,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>330800</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1829,7 +1905,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>330800</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,7 +1944,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>330800</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,7 +1983,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>330800</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,7 +2022,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>330800</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1977,7 +2061,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>330800</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,7 +2100,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>330800</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,7 +2139,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>330800</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2088,7 +2178,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>330800</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2125,7 +2217,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>330800</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2162,7 +2256,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>330800</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2199,7 +2295,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>330800</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,7 +2334,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>330800</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2273,7 +2373,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>330800</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,7 +2412,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>330800</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,7 +2451,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>330800</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,7 +2490,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>330800</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2421,7 +2529,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>330800</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,7 +2568,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>330800</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2495,7 +2607,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>330800</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2532,7 +2646,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>330800</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,7 +2685,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>330800</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,7 +2724,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>330800</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,7 +2763,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>330800</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,7 +2802,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>330800</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,7 +2841,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>330800</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,7 +2880,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>330800</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,7 +2919,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>330800</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,7 +2958,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>330800</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,7 +2997,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>330800</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,7 +3036,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>330800</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,7 +3075,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>330800</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,7 +3114,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>330800</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,7 +3153,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>330800</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,7 +3192,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>330800</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,7 +3231,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>330800</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,7 +3270,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>330800</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,7 +3309,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>330800</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,7 +3348,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>330800</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,7 +3387,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>330800</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,7 +3426,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>330800</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,7 +3465,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>330800</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,7 +3504,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>330800</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,7 +3543,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>330800</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,7 +3582,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>330800</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,7 +3621,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>330800</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,7 +3660,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>330800</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,7 +3699,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>330800</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>330800</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>330800</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>330800</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,7 +3855,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>330800</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,7 +3894,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>330800</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>330800</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>330800</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,7 +4011,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>330800</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,7 +4050,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>330800</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,7 +4089,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>330800</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,7 +4128,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>330800</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,7 +4167,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>330800</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,7 +4206,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>330800</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,7 +4245,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>330800</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,7 +4284,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>330800</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,7 +4323,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>330800</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,7 +4362,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>330800</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,7 +4401,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>330800</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,7 +4440,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>330800</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,7 +4479,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>330800</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,7 +4518,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>330800</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,7 +4557,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>330800</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,7 +4596,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>330800</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,7 +4635,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>330800</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,7 +4674,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>330800</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4493,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>330800</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,7 +4752,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>330800</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,7 +4791,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>330800</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,7 +4830,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>330800</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,7 +4869,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>330800</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,7 +4908,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>330800</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4715,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>330800</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>330800</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4789,7 +5025,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>330800</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>330800</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>330800</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4900,7 +5142,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>330800</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4937,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>330800</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4974,7 +5220,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>330800</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>330800</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5048,7 +5298,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>330800</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5085,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>330800</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>330800</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5159,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>330800</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,7 +5454,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>330800</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5233,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>330800</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>330800</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>330800</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>330800</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5381,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>330800</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>330800</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>330800</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>330800</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>330800</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,7 +5844,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>330800</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>330800</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5640,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>330800</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,7 +5961,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>330800</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5714,7 +6000,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>330800</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>330800</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,7 +6078,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>330800</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5825,7 +6117,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>330800</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5862,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>330800</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,16 +6192,20 @@
         <v>-2.719447850000009</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>330800</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5934,8 +6234,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5967,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6000,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6033,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6066,8 +6390,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +6429,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6546,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6231,8 +6585,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6264,8 +6624,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6297,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6330,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6363,8 +6741,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6396,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6429,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6462,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6495,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6528,8 +6936,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6561,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6594,8 +7014,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6627,8 +7053,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6660,8 +7092,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6693,8 +7131,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6726,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7287,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7326,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +7404,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +7521,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +7560,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7518,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7551,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7584,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7617,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7650,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7716,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7749,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7782,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7848,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7881,8 +8535,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +8730,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +8808,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +8847,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +8925,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +8964,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +9003,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +9042,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +9081,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +9120,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +9159,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +9198,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9237,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9276,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9315,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +9354,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +9393,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +9432,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +9471,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +9510,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +9549,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +9588,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +9627,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +9666,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +9705,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8904,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8937,8 +9783,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +9822,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9003,8 +9861,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9036,8 +9900,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9069,8 +9939,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9978,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +10056,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10095,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10134,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9366,8 +10290,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10329,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +10407,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9498,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +10719,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +10797,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +10836,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +10875,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +10914,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9993,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10191,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10356,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10389,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10422,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10455,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10488,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10521,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10587,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10620,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10653,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10686,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10752,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10785,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10818,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10851,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10884,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10917,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10950,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10983,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11016,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11049,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11082,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11115,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11148,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11181,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11214,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11247,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11280,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11313,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11346,8 +12630,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11379,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11478,8 +12786,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11511,8 +12825,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11544,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11577,8 +12903,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11610,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11643,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11676,8 +13020,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +13059,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11742,8 +13098,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11775,8 +13137,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11808,8 +13176,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11841,8 +13215,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11874,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11907,8 +13293,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11940,8 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11973,8 +13371,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12006,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12039,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12072,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12105,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12138,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12171,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12237,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12270,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12303,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12336,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12369,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12402,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12435,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12468,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12501,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12534,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12567,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12600,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12633,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12663,11 +14187,17 @@
         <v>-344.0271408400001</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12699,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12732,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12765,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12798,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12831,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12864,8 +14424,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12897,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12927,11 +14499,17 @@
         <v>-481.0257408400001</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12963,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12996,8 +14580,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13029,8 +14619,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13062,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13095,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13128,8 +14736,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13161,8 +14775,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13194,8 +14814,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13227,8 +14853,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13260,8 +14892,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13293,8 +14931,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13326,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13359,8 +15009,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13392,8 +15048,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13425,8 +15087,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +15123,17 @@
         <v>-414.0161885800002</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13488,11 +15162,17 @@
         <v>-398.9111885800002</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13524,8 +15204,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13557,8 +15243,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13590,8 +15282,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13623,8 +15321,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13656,8 +15360,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +15438,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13788,8 +15516,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13821,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13854,8 +15594,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13887,8 +15633,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13920,8 +15672,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +15711,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13986,8 +15750,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14019,8 +15789,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14052,8 +15828,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14085,8 +15867,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14118,8 +15906,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14151,8 +15945,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14184,8 +15984,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14217,8 +16023,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14250,8 +16062,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14283,8 +16101,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14316,8 +16140,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14349,8 +16179,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14382,8 +16218,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14415,8 +16257,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14448,8 +16296,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14481,8 +16335,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14514,8 +16374,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14547,8 +16413,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14580,8 +16452,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14613,8 +16491,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14646,8 +16530,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14679,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14712,8 +16608,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14745,8 +16647,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14778,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14811,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14844,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14877,8 +16803,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +16842,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14943,8 +16881,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14976,8 +16920,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15009,8 +16959,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15042,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15075,8 +17037,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15108,8 +17076,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15141,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15207,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15273,8 +17271,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15306,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15339,8 +17349,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15372,8 +17388,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15405,8 +17427,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15438,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15471,8 +17505,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15504,8 +17544,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15537,8 +17583,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15570,8 +17622,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15603,8 +17661,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15636,8 +17700,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15669,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15702,8 +17778,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15735,8 +17817,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15768,8 +17856,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15801,8 +17895,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15834,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15867,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15900,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15933,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15966,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15999,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16032,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16065,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16098,8 +18246,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16131,8 +18285,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16164,8 +18324,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16197,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16230,8 +18402,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16263,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16296,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16329,8 +18519,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16362,8 +18558,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16395,8 +18597,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16428,8 +18636,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16461,8 +18675,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16494,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16527,8 +18753,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16560,8 +18792,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16593,8 +18831,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16626,8 +18870,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16659,8 +18909,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16692,8 +18948,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16725,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16758,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16791,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16824,8 +19104,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16857,8 +19143,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16890,8 +19182,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16923,8 +19221,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16956,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16989,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17022,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17055,8 +19377,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17088,8 +19416,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17121,8 +19455,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17154,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17187,8 +19533,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17220,8 +19572,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17253,8 +19611,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17286,8 +19650,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17319,8 +19689,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17352,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17385,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17418,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17451,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17484,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17517,8 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17550,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17583,8 +20001,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17616,8 +20040,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17649,8 +20079,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17682,8 +20118,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17715,8 +20157,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17748,8 +20196,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17781,8 +20235,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17814,8 +20274,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17847,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17880,8 +20352,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17913,8 +20391,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17946,8 +20430,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17979,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18012,8 +20508,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18045,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18078,8 +20586,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18111,8 +20625,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18144,8 +20664,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18177,8 +20703,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18210,8 +20742,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18243,8 +20781,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18276,8 +20820,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18309,8 +20859,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18342,8 +20898,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18375,8 +20937,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18408,8 +20976,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18441,8 +21015,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18474,8 +21054,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18507,8 +21093,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18540,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18573,8 +21171,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18603,11 +21207,17 @@
         <v>-190.3754562000011</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18636,11 +21246,17 @@
         <v>-128.7075562000011</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18669,11 +21285,17 @@
         <v>18.93794379999886</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18702,11 +21324,17 @@
         <v>-209.8955382900011</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18735,15 +21363,23 @@
         <v>-117.7853382900011</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>330800</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
+        <v>1.061203143893591</v>
+      </c>
+      <c r="M538" t="n">
+        <v>1.011850501367366</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -18768,7 +21404,7 @@
         <v>-269.7786382900011</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18801,7 +21437,7 @@
         <v>-238.4232382900011</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18834,7 +21470,7 @@
         <v>-226.0837382900012</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18867,7 +21503,7 @@
         <v>-347.8297570700012</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18900,7 +21536,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18933,7 +21569,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18966,7 +21602,7 @@
         <v>-440.2764856400012</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18999,7 +21635,7 @@
         <v>-499.3457856400012</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19032,7 +21668,7 @@
         <v>-382.8522875000012</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19263,7 +21899,7 @@
         <v>-562.1198979200011</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19296,7 +21932,7 @@
         <v>-627.8164979200011</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19329,7 +21965,7 @@
         <v>-674.6338979200011</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19362,7 +21998,7 @@
         <v>-608.3932225500012</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19395,7 +22031,7 @@
         <v>-658.6905225500011</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19428,7 +22064,7 @@
         <v>-694.0627225500011</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19461,7 +22097,7 @@
         <v>-729.2682683400011</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19494,7 +22130,7 @@
         <v>-662.6663791500011</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19527,7 +22163,7 @@
         <v>-705.5540791500011</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19560,7 +22196,7 @@
         <v>-781.1477791500012</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19593,7 +22229,7 @@
         <v>-1118.927879150001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19626,7 +22262,7 @@
         <v>-937.7300791500012</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19659,7 +22295,7 @@
         <v>-893.2596791500011</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19692,7 +22328,7 @@
         <v>-798.2703791500012</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19725,7 +22361,7 @@
         <v>-776.2241791500012</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19758,7 +22394,7 @@
         <v>-737.2154791500012</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19791,7 +22427,7 @@
         <v>-767.0750791500012</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19824,7 +22460,7 @@
         <v>-742.3453791500012</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19857,7 +22493,7 @@
         <v>-710.8116959200013</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19890,7 +22526,7 @@
         <v>-684.7133950300013</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19923,7 +22559,7 @@
         <v>-684.7133950300013</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19956,7 +22592,7 @@
         <v>-679.4774950300013</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19989,7 +22625,7 @@
         <v>-633.0578079400012</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20022,7 +22658,7 @@
         <v>-688.8279079400012</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20055,7 +22691,7 @@
         <v>-653.1877079400011</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20088,7 +22724,7 @@
         <v>-690.8799079400011</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20121,7 +22757,7 @@
         <v>-843.5236079400011</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -27249,7 +29885,7 @@
         <v>-852.3860360300004</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27282,7 +29918,7 @@
         <v>-882.8716360300003</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27315,7 +29951,7 @@
         <v>-882.8716360300003</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27348,7 +29984,7 @@
         <v>-886.0057360300003</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27381,7 +30017,7 @@
         <v>-887.0057360300003</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27414,7 +30050,7 @@
         <v>-904.8091360300003</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27480,7 +30116,7 @@
         <v>-872.5100360300004</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27513,7 +30149,7 @@
         <v>-872.5100360300004</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27579,7 +30215,7 @@
         <v>-939.3122448400004</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27612,7 +30248,7 @@
         <v>-935.6082448400005</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27645,7 +30281,7 @@
         <v>-937.1635463100005</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27678,7 +30314,7 @@
         <v>-897.0278463100004</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28008,7 +30644,7 @@
         <v>-879.1323551200003</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28107,7 +30743,7 @@
         <v>-871.7373551200002</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28140,7 +30776,7 @@
         <v>-870.4117551200002</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28173,7 +30809,7 @@
         <v>-870.4117551200002</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28206,7 +30842,7 @@
         <v>-881.6413551200002</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28239,7 +30875,7 @@
         <v>-1068.90415512</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28272,7 +30908,7 @@
         <v>-1033.67345512</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28305,7 +30941,7 @@
         <v>-1033.77345512</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28338,7 +30974,7 @@
         <v>-1081.91155512</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28371,7 +31007,7 @@
         <v>-1089.99645512</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28767,7 +31403,7 @@
         <v>-1364.24180258</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28833,7 +31469,7 @@
         <v>-1383.77250258</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30813,7 +33449,7 @@
         <v>-1355.75009869</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30879,7 +33515,7 @@
         <v>-1267.91119869</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30912,7 +33548,7 @@
         <v>-1211.59116992</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31011,7 +33647,7 @@
         <v>-1329.36802497</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31044,7 +33680,7 @@
         <v>-1282.02382497</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31077,7 +33713,7 @@
         <v>-1158.74152497</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31143,7 +33779,7 @@
         <v>-1151.91632497</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31176,7 +33812,7 @@
         <v>-1146.34452497</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31209,7 +33845,7 @@
         <v>-1200.86802497</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31242,7 +33878,7 @@
         <v>-1208.78412497</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31275,7 +33911,7 @@
         <v>-1244.69402497</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31308,7 +33944,7 @@
         <v>-1246.09402497</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31341,7 +33977,7 @@
         <v>-1250.70252497</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31374,7 +34010,7 @@
         <v>-1279.32772497</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33156,7 +35792,7 @@
         <v>-858.6240000100007</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33486,7 +36122,7 @@
         <v>-469.5970166700007</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33519,7 +36155,7 @@
         <v>-506.3980166700007</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33552,7 +36188,7 @@
         <v>-487.9496166700007</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33585,7 +36221,7 @@
         <v>-504.8708166700007</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33618,7 +36254,7 @@
         <v>-540.5521166700007</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33651,7 +36287,7 @@
         <v>-540.5521166700007</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33849,7 +36485,7 @@
         <v>-628.8644166700007</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33882,7 +36518,7 @@
         <v>-676.5808166700007</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33915,7 +36551,7 @@
         <v>-777.2378166700007</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33948,7 +36584,7 @@
         <v>-875.9502166700007</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -42473,6 +45109,6 @@
       <c r="M1257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>